--- a/results/language_distribution/bilingual_percentage.xlsx
+++ b/results/language_distribution/bilingual_percentage.xlsx
@@ -444,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>34.92063492063492</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="F2">
-        <v>65.07936507936508</v>
+        <v>65.78947368421053</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +464,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>62.17391304347826</v>
+        <v>62.39316239316239</v>
       </c>
       <c r="F3">
-        <v>37.82608695652173</v>
+        <v>37.60683760683761</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,13 +487,13 @@
         <v>117</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4">
-        <v>46.24505928853755</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="F4">
-        <v>53.75494071146245</v>
+        <v>53.57142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,13 +507,13 @@
         <v>80</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>52.98013245033113</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F5">
-        <v>47.01986754966887</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -541,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47.62931034482759</v>
+        <v>47.6906552094522</v>
       </c>
       <c r="F7">
-        <v>52.37068965517241</v>
+        <v>52.3093447905478</v>
       </c>
     </row>
   </sheetData>

--- a/results/language_distribution/bilingual_percentage.xlsx
+++ b/results/language_distribution/bilingual_percentage.xlsx
@@ -444,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>34.21052631578947</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F2">
-        <v>65.78947368421053</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +464,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>62.39316239316239</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="F3">
-        <v>37.60683760683761</v>
+        <v>37.17948717948718</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,16 +484,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>46.42857142857143</v>
+        <v>46.21513944223107</v>
       </c>
       <c r="F4">
-        <v>53.57142857142857</v>
+        <v>53.78486055776892</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47.6906552094522</v>
+        <v>47.57804090419806</v>
       </c>
       <c r="F7">
-        <v>52.3093447905478</v>
+        <v>52.42195909580194</v>
       </c>
     </row>
   </sheetData>

--- a/results/language_distribution/bilingual_percentage.xlsx
+++ b/results/language_distribution/bilingual_percentage.xlsx
@@ -444,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>33.33333333333333</v>
+        <v>34.39153439153439</v>
       </c>
       <c r="F2">
-        <v>66.66666666666666</v>
+        <v>65.60846560846561</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +464,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>62.82051282051282</v>
+        <v>63.24786324786324</v>
       </c>
       <c r="F3">
-        <v>37.17948717948718</v>
+        <v>36.75213675213676</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -504,16 +504,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>53.33333333333334</v>
+        <v>52.66666666666666</v>
       </c>
       <c r="F5">
-        <v>46.66666666666666</v>
+        <v>47.33333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -541,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47.57804090419806</v>
+        <v>47.79332615715823</v>
       </c>
       <c r="F7">
-        <v>52.42195909580194</v>
+        <v>52.20667384284177</v>
       </c>
     </row>
   </sheetData>

--- a/results/language_distribution/bilingual_percentage.xlsx
+++ b/results/language_distribution/bilingual_percentage.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\UdeM\Maîtrise\Données\labrri_ocpm_systemic_racism\results\language_distribution\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E16C9-232E-463C-8A48-22FBF1870952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,12 +34,6 @@
     <t>French Sentences</t>
   </si>
   <si>
-    <t>English (%)</t>
-  </si>
-  <si>
-    <t>French (%)</t>
-  </si>
-  <si>
     <t>Balarama Holness</t>
   </si>
   <si>
@@ -53,13 +53,19 @@
   </si>
   <si>
     <t>Overall Average</t>
+  </si>
+  <si>
+    <t>English (% for total sentences)</t>
+  </si>
+  <si>
+    <t>French (% for total sentences)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +75,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -93,17 +111,425 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -111,10 +537,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,13 +671,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +723,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +757,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +792,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,145 +968,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="195" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>65</v>
+      </c>
+      <c r="D2" s="9">
+        <v>124</v>
+      </c>
+      <c r="E2" s="10">
+        <v>34.391534391534393</v>
+      </c>
+      <c r="F2" s="11">
+        <v>65.608465608465607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14">
+        <v>148</v>
+      </c>
+      <c r="D3" s="15">
+        <v>86</v>
+      </c>
+      <c r="E3" s="16">
+        <v>63.247863247863243</v>
+      </c>
+      <c r="F3" s="17">
+        <v>36.752136752136757</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-      <c r="D2">
-        <v>124</v>
-      </c>
-      <c r="E2">
-        <v>34.39153439153439</v>
-      </c>
-      <c r="F2">
-        <v>65.60846560846561</v>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20">
+        <v>116</v>
+      </c>
+      <c r="D4" s="21">
+        <v>135</v>
+      </c>
+      <c r="E4" s="22">
+        <v>46.21513944223107</v>
+      </c>
+      <c r="F4" s="23">
+        <v>53.784860557768923</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>148</v>
-      </c>
-      <c r="D3">
-        <v>86</v>
-      </c>
-      <c r="E3">
-        <v>63.24786324786324</v>
-      </c>
-      <c r="F3">
-        <v>36.75213675213676</v>
+      <c r="B5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="26">
+        <v>79</v>
+      </c>
+      <c r="D5" s="27">
+        <v>71</v>
+      </c>
+      <c r="E5" s="28">
+        <v>52.666666666666657</v>
+      </c>
+      <c r="F5" s="29">
+        <v>47.333333333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>116</v>
-      </c>
-      <c r="D4">
-        <v>135</v>
-      </c>
-      <c r="E4">
-        <v>46.21513944223107</v>
-      </c>
-      <c r="F4">
-        <v>53.78486055776892</v>
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32">
+        <v>36</v>
+      </c>
+      <c r="D6" s="33">
+        <v>69</v>
+      </c>
+      <c r="E6" s="34">
+        <v>34.285714285714278</v>
+      </c>
+      <c r="F6" s="35">
+        <v>65.714285714285708</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>79</v>
-      </c>
-      <c r="D5">
-        <v>71</v>
-      </c>
-      <c r="E5">
-        <v>52.66666666666666</v>
-      </c>
-      <c r="F5">
-        <v>47.33333333333334</v>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40">
+        <v>47.793326157158234</v>
+      </c>
+      <c r="F7" s="41">
+        <v>52.206673842841766</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>34.28571428571428</v>
-      </c>
-      <c r="F6">
-        <v>65.71428571428571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>47.79332615715823</v>
-      </c>
-      <c r="F7">
-        <v>52.20667384284177</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>